--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sty\workspace\SeleniumJavaWebDriver\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1B78CC3C-7B71-4F4C-BB7E-97CCA14080D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,26 +523,6 @@
     <t>https://github.com/codekiller</t>
   </si>
   <si>
-    <t>https://gitlab.com/life2015</t>
-  </si>
-  <si>
-    <t>https://github.com/3015207537/</t>
-  </si>
-  <si>
-    <t>https://github.com/hyx22222</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/Hyzeta/junithomework0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://github.com/kkw98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Wudyd/testing
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/lvjunsetup</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -558,13 +532,37 @@
   </si>
   <si>
     <t>3015218058</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Wudyd/testing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitlab.com/Hyzeta/junithomework0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/hyx22222</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/3015207537/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitlab.com/life2015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/kkw98</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,7 +662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,11 +701,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 4" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -735,7 +736,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{5690D432-0641-4DC2-AD93-05C9FB80E4E1}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1008,20 +1009,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" customWidth="1"/>
+    <col min="2" max="2" width="56.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1077,15 +1078,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>92</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>94</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>96</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>98</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>100</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>104</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>106</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>108</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>110</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>112</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>114</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>116</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>118</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>120</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>122</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>124</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>126</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>128</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>130</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>132</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>134</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>136</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>138</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>140</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>142</v>
       </c>
@@ -1605,21 +1606,21 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>146</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>148</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="8">
         <v>3015218154</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
         <v>151</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
         <v>153</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>155</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
         <v>157</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
         <v>159</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
         <v>161</v>
       </c>
@@ -1691,15 +1692,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8">
         <v>3015207359</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>3015207191</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>3015230112</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>3015204355</v>
       </c>
@@ -1723,7 +1724,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>3015210152</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>3015207468</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="9">
         <v>3015230120</v>
       </c>
@@ -1747,7 +1748,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>3015204355</v>
       </c>
@@ -1755,143 +1756,144 @@
         <v>165</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>3015204342</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="9">
         <v>3015207537</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="9">
         <v>3015207222</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>3015201040</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="9">
         <v>3015201231</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>173</v>
+      <c r="B97" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B85" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B84" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B83" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B82" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B81" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B80" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B79" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B78" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B77" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B76" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B75" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B73" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B72" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B71" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B70" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B69" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B68" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B67" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B66" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B65" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B64" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B61" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B60" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B59" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B58" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B57" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B56" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B55" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B54" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B53" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B52" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B50" r:id="rId34" tooltip="https://github.com/tjuhjy/" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B47" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B46" r:id="rId38" tooltip="https://github.com/ch3cooch2ch3" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B44" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B43" r:id="rId41" tooltip="https://github.com/yuchunyu97/" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B41" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B40" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B39" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B35" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B34" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B33" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B32" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B31" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B30" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B29" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B27" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B26" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B25" r:id="rId56" tooltip="https://github.com/sanxyzhang" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B23" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B22" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B21" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B20" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B19" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B18" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B17" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B16" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B15" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B14" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B13" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B12" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B11" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B10" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B9" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B8" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B7" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B6" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B4" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B3" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B2" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B1" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B86" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B87" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B88" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B89" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B90" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B91" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B92" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B94" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B95" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B5" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B96" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B93" r:id="rId90" tooltip="https://gitlab.com/life2015" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B36" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B37" r:id="rId92" tooltip="https://github.com/qg123456" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B85" r:id="rId1"/>
+    <hyperlink ref="B84" r:id="rId2"/>
+    <hyperlink ref="B83" r:id="rId3"/>
+    <hyperlink ref="B82" r:id="rId4"/>
+    <hyperlink ref="B81" r:id="rId5"/>
+    <hyperlink ref="B80" r:id="rId6"/>
+    <hyperlink ref="B79" r:id="rId7"/>
+    <hyperlink ref="B78" r:id="rId8"/>
+    <hyperlink ref="B77" r:id="rId9"/>
+    <hyperlink ref="B76" r:id="rId10"/>
+    <hyperlink ref="B75" r:id="rId11"/>
+    <hyperlink ref="B73" r:id="rId12"/>
+    <hyperlink ref="B72" r:id="rId13"/>
+    <hyperlink ref="B71" r:id="rId14"/>
+    <hyperlink ref="B70" r:id="rId15"/>
+    <hyperlink ref="B69" r:id="rId16"/>
+    <hyperlink ref="B68" r:id="rId17"/>
+    <hyperlink ref="B67" r:id="rId18"/>
+    <hyperlink ref="B66" r:id="rId19"/>
+    <hyperlink ref="B65" r:id="rId20"/>
+    <hyperlink ref="B64" r:id="rId21"/>
+    <hyperlink ref="B63" r:id="rId22"/>
+    <hyperlink ref="B62" r:id="rId23"/>
+    <hyperlink ref="B61" r:id="rId24"/>
+    <hyperlink ref="B60" r:id="rId25"/>
+    <hyperlink ref="B59" r:id="rId26"/>
+    <hyperlink ref="B58" r:id="rId27"/>
+    <hyperlink ref="B57" r:id="rId28"/>
+    <hyperlink ref="B56" r:id="rId29"/>
+    <hyperlink ref="B55" r:id="rId30"/>
+    <hyperlink ref="B54" r:id="rId31"/>
+    <hyperlink ref="B53" r:id="rId32"/>
+    <hyperlink ref="B52" r:id="rId33"/>
+    <hyperlink ref="B50" r:id="rId34" tooltip="https://github.com/tjuhjy/"/>
+    <hyperlink ref="B49" r:id="rId35"/>
+    <hyperlink ref="B48" r:id="rId36"/>
+    <hyperlink ref="B47" r:id="rId37"/>
+    <hyperlink ref="B46" r:id="rId38" tooltip="https://github.com/ch3cooch2ch3"/>
+    <hyperlink ref="B45" r:id="rId39"/>
+    <hyperlink ref="B44" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41" tooltip="https://github.com/yuchunyu97/"/>
+    <hyperlink ref="B42" r:id="rId42"/>
+    <hyperlink ref="B41" r:id="rId43"/>
+    <hyperlink ref="B40" r:id="rId44"/>
+    <hyperlink ref="B39" r:id="rId45"/>
+    <hyperlink ref="B35" r:id="rId46"/>
+    <hyperlink ref="B34" r:id="rId47"/>
+    <hyperlink ref="B33" r:id="rId48"/>
+    <hyperlink ref="B32" r:id="rId49"/>
+    <hyperlink ref="B31" r:id="rId50"/>
+    <hyperlink ref="B30" r:id="rId51"/>
+    <hyperlink ref="B29" r:id="rId52"/>
+    <hyperlink ref="B28" r:id="rId53"/>
+    <hyperlink ref="B27" r:id="rId54"/>
+    <hyperlink ref="B26" r:id="rId55"/>
+    <hyperlink ref="B25" r:id="rId56" tooltip="https://github.com/sanxyzhang"/>
+    <hyperlink ref="B23" r:id="rId57"/>
+    <hyperlink ref="B22" r:id="rId58"/>
+    <hyperlink ref="B21" r:id="rId59"/>
+    <hyperlink ref="B20" r:id="rId60"/>
+    <hyperlink ref="B19" r:id="rId61"/>
+    <hyperlink ref="B18" r:id="rId62"/>
+    <hyperlink ref="B17" r:id="rId63"/>
+    <hyperlink ref="B16" r:id="rId64"/>
+    <hyperlink ref="B15" r:id="rId65"/>
+    <hyperlink ref="B14" r:id="rId66"/>
+    <hyperlink ref="B13" r:id="rId67"/>
+    <hyperlink ref="B12" r:id="rId68"/>
+    <hyperlink ref="B11" r:id="rId69"/>
+    <hyperlink ref="B10" r:id="rId70"/>
+    <hyperlink ref="B9" r:id="rId71"/>
+    <hyperlink ref="B8" r:id="rId72"/>
+    <hyperlink ref="B7" r:id="rId73"/>
+    <hyperlink ref="B6" r:id="rId74"/>
+    <hyperlink ref="B4" r:id="rId75"/>
+    <hyperlink ref="B3" r:id="rId76"/>
+    <hyperlink ref="B2" r:id="rId77"/>
+    <hyperlink ref="B1" r:id="rId78"/>
+    <hyperlink ref="B86" r:id="rId79"/>
+    <hyperlink ref="B87" r:id="rId80"/>
+    <hyperlink ref="B88" r:id="rId81"/>
+    <hyperlink ref="B89" r:id="rId82"/>
+    <hyperlink ref="B90" r:id="rId83"/>
+    <hyperlink ref="B91" r:id="rId84"/>
+    <hyperlink ref="B92" r:id="rId85"/>
+    <hyperlink ref="B94" r:id="rId86"/>
+    <hyperlink ref="B95" r:id="rId87"/>
+    <hyperlink ref="B5" r:id="rId88"/>
+    <hyperlink ref="B96" r:id="rId89"/>
+    <hyperlink ref="B93" r:id="rId90"/>
+    <hyperlink ref="B36" r:id="rId91"/>
+    <hyperlink ref="B37" r:id="rId92" tooltip="https://github.com/qg123456"/>
+    <hyperlink ref="B97" r:id="rId93"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId93"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>